--- a/ST2-PRJ-3/LP_System5.xlsx
+++ b/ST2-PRJ-3/LP_System5.xlsx
@@ -479,8 +479,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005746FAEFD9647546B33813912DFBAF4E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb174e85ea92bc7e1ee21a462f9f0eba">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e4a7d86-7b3d-406f-a61b-87632711cdbb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13bb5fab5cda9abcb1340387fea6d321" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005746FAEFD9647546B33813912DFBAF4E" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9a42354234f79058e1f0f656f3c4c6b3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e4a7d86-7b3d-406f-a61b-87632711cdbb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf2546b32a822f57e025b2e17feaa0b7" ns2:_="">
     <xsd:import namespace="6e4a7d86-7b3d-406f-a61b-87632711cdbb"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -546,8 +546,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80A9E3F-75F0-4C48-B5B8-CAF153997AF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E30CD5D5-AE24-4474-AB86-885C031E583D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
